--- a/config/config_mysql.xlsx
+++ b/config/config_mysql.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
